--- a/英语笔记.xlsx
+++ b/英语笔记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">issue</t>
   </si>
@@ -86,6 +86,42 @@
   </si>
   <si>
     <t xml:space="preserve">联系，混在一起</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结构，层次，建筑学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synopsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大纲，梗概</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打算，计划，想要，意指</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专用的，专业的，专门的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制，复印，重复无意义的，完全一样的，副本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浅的，弱的</t>
   </si>
 </sst>
 </file>
@@ -210,13 +246,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -291,10 +327,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -302,16 +338,64 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/英语笔记.xlsx
+++ b/英语笔记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">issue</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">浅的，弱的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">论文，命题，论题</t>
   </si>
 </sst>
 </file>
@@ -246,13 +252,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -391,11 +397,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/英语笔记.xlsx
+++ b/英语笔记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t xml:space="preserve">issue</t>
   </si>
@@ -128,6 +128,102 @@
   </si>
   <si>
     <t xml:space="preserve">论文，命题，论题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">发现，察觉，侦测到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">诠释，说明，领会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bracket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">括号，等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">效率高的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">习俗，惯例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部的，里面的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收缩，减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集会，立法会，装配，组装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加法，增加，添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增量，增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incremental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增长的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合适的，恰当的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可选择的，选修的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遗产，遗赠财务，老化的，老式的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假定的，假设的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直线的，线状的</t>
   </si>
 </sst>
 </file>
@@ -137,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -160,15 +256,9 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -214,25 +304,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -252,164 +334,296 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.61"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
